--- a/data/trans_orig/P64D1_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P64D1_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>55334</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40943</v>
+        <v>41754</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70706</v>
+        <v>71412</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3114428619286176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2304453997930292</v>
+        <v>0.2350105281721439</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3979647029564593</v>
+        <v>0.4019358413328794</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -762,19 +762,19 @@
         <v>81542</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68929</v>
+        <v>69796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93498</v>
+        <v>93807</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4781043492484901</v>
+        <v>0.4781043492484902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4041479859023791</v>
+        <v>0.4092339344772494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5482043839519815</v>
+        <v>0.5500179550053723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>141</v>
@@ -783,19 +783,19 @@
         <v>136876</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119944</v>
+        <v>117401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>158922</v>
+        <v>157870</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3930707000675764</v>
+        <v>0.3930707000675765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3444473132587526</v>
+        <v>0.3371435675790876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4563808135724813</v>
+        <v>0.4533592322354746</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>122335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106963</v>
+        <v>106257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136726</v>
+        <v>135915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6885571380713824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6020352970435406</v>
+        <v>0.5980641586671207</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7695546002069705</v>
+        <v>0.7649894718278561</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -833,19 +833,19 @@
         <v>89011</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77055</v>
+        <v>76746</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101624</v>
+        <v>100757</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5218956507515098</v>
+        <v>0.5218956507515099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4517956160480187</v>
+        <v>0.4499820449946278</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5958520140976209</v>
+        <v>0.5907660655227507</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>211</v>
@@ -854,19 +854,19 @@
         <v>211347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>189301</v>
+        <v>190353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>228279</v>
+        <v>230822</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6069292999324236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5436191864275189</v>
+        <v>0.546640767764525</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6555526867412474</v>
+        <v>0.6628564324209123</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>135051</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113848</v>
+        <v>112354</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>161345</v>
+        <v>158817</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2646047881813915</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2230612490937929</v>
+        <v>0.2201341427959789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3161230876242295</v>
+        <v>0.3111690502025324</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>191</v>
@@ -979,19 +979,19 @@
         <v>146996</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130745</v>
+        <v>131266</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>163834</v>
+        <v>164885</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4082158497522597</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3630845665338873</v>
+        <v>0.3645334219138661</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4549752196513111</v>
+        <v>0.4578935925183275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>301</v>
@@ -1000,19 +1000,19 @@
         <v>282047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>253900</v>
+        <v>251744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>312259</v>
+        <v>311087</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3240126106037363</v>
+        <v>0.3240126106037364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2916780131078722</v>
+        <v>0.2892007629671384</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3587201967049639</v>
+        <v>0.3573732703584503</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>375337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>349043</v>
+        <v>351571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>396540</v>
+        <v>398034</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7353952118186086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6838769123757704</v>
+        <v>0.6888309497974675</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.776938750906207</v>
+        <v>0.7798658572040209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -1050,19 +1050,19 @@
         <v>213098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>196260</v>
+        <v>195209</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>229349</v>
+        <v>228828</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5917841502477401</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5450247803486885</v>
+        <v>0.5421064074816726</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6369154334661125</v>
+        <v>0.6354665780861339</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>579</v>
@@ -1071,19 +1071,19 @@
         <v>588435</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>558223</v>
+        <v>559395</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>616582</v>
+        <v>618738</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6759873893962633</v>
+        <v>0.6759873893962636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.641279803295036</v>
+        <v>0.6426267296415497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7083219868921272</v>
+        <v>0.7107992370328613</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>141823</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120026</v>
+        <v>118440</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165531</v>
+        <v>165296</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2280187871309563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1929734856946581</v>
+        <v>0.1904233502834418</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2661349970413798</v>
+        <v>0.2657571552401432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>241</v>
@@ -1196,19 +1196,19 @@
         <v>172373</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154099</v>
+        <v>154302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>191628</v>
+        <v>190279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3527592161714511</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3153625855692107</v>
+        <v>0.3157770021338524</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3921651547051359</v>
+        <v>0.389403578343089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -1217,19 +1217,19 @@
         <v>314196</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286249</v>
+        <v>285430</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>346233</v>
+        <v>345898</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2829010119545873</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2577373768666189</v>
+        <v>0.2570000260950527</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3117462862416222</v>
+        <v>0.3114446145963332</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>480157</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>456449</v>
+        <v>456684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>501954</v>
+        <v>503540</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7719812128690436</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7338650029586201</v>
+        <v>0.734242844759857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8070265143053417</v>
+        <v>0.8095766497165582</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -1267,19 +1267,19 @@
         <v>316269</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>297014</v>
+        <v>298363</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334543</v>
+        <v>334340</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6472407838285488</v>
+        <v>0.6472407838285489</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6078348452948641</v>
+        <v>0.6105964216569109</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6846374144307891</v>
+        <v>0.6842229978661476</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>856</v>
@@ -1288,19 +1288,19 @@
         <v>796427</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>764390</v>
+        <v>764725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>824374</v>
+        <v>825193</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7170989880454126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6882537137583778</v>
+        <v>0.6885553854036667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7422626231333811</v>
+        <v>0.7429999739049474</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>131485</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110388</v>
+        <v>110370</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156983</v>
+        <v>154651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2226578504026537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1869334239362985</v>
+        <v>0.1869029125898493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2658366537306843</v>
+        <v>0.2618879815335131</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -1413,19 +1413,19 @@
         <v>155004</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137287</v>
+        <v>138399</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>172498</v>
+        <v>172892</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3358724544843593</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2974825718321549</v>
+        <v>0.2998916943660798</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3737807367477244</v>
+        <v>0.3746348570525823</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>372</v>
@@ -1434,19 +1434,19 @@
         <v>286488</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258693</v>
+        <v>258000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>315063</v>
+        <v>313181</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2723223935380967</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2459016645262314</v>
+        <v>0.2452426840375602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2994843521536111</v>
+        <v>0.297695434788063</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>459038</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>433540</v>
+        <v>435872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>480135</v>
+        <v>480153</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7773421495973463</v>
+        <v>0.7773421495973462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7341633462693159</v>
+        <v>0.738112018466487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8130665760637017</v>
+        <v>0.8130970874101505</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -1484,19 +1484,19 @@
         <v>306492</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288998</v>
+        <v>288604</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>324209</v>
+        <v>323097</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6641275455156408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6262192632522755</v>
+        <v>0.6253651429474177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7025174281678452</v>
+        <v>0.7001083056339203</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>792</v>
@@ -1505,19 +1505,19 @@
         <v>765531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>736956</v>
+        <v>738838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>793326</v>
+        <v>794019</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7276776064619035</v>
+        <v>0.7276776064619034</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.700515647846389</v>
+        <v>0.7023045652119368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7540983354737685</v>
+        <v>0.7547573159624394</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>463693</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>427414</v>
+        <v>420958</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>505450</v>
+        <v>505589</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2439768112931098</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2248883409127134</v>
+        <v>0.2214911830737235</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2659475820139308</v>
+        <v>0.2660211594542488</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>772</v>
@@ -1630,19 +1630,19 @@
         <v>555915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>521403</v>
+        <v>520885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>589256</v>
+        <v>591873</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3754191147395228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3521126671704622</v>
+        <v>0.3517625330010449</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3979345991759682</v>
+        <v>0.3997021709559099</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1183</v>
@@ -1651,19 +1651,19 @@
         <v>1019608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>969830</v>
+        <v>970618</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1078576</v>
+        <v>1076165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3015390221287528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2868177114719413</v>
+        <v>0.2870506503658892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3189782747438767</v>
+        <v>0.318265253212577</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>1436868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1395111</v>
+        <v>1394972</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1473147</v>
+        <v>1479603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7560231887068901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7340524179860691</v>
+        <v>0.7339788405457512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7751116590872866</v>
+        <v>0.7785088169262766</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1212</v>
@@ -1701,19 +1701,19 @@
         <v>924870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>891529</v>
+        <v>888912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>959382</v>
+        <v>959900</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6245808852604772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6020654008240317</v>
+        <v>0.6002978290440897</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6478873328295377</v>
+        <v>0.6482374669989549</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2438</v>
@@ -1722,19 +1722,19 @@
         <v>2361738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2302770</v>
+        <v>2305181</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2411516</v>
+        <v>2410728</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6984609778712472</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6810217252561233</v>
+        <v>0.6817347467874231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7131822885280588</v>
+        <v>0.7129493496341107</v>
       </c>
     </row>
     <row r="18">
